--- a/covidnew_sg.xlsx
+++ b/covidnew_sg.xlsx
@@ -3552,7 +3552,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C227">
         <v>0</v>

--- a/covidnew_sg.xlsx
+++ b/covidnew_sg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
   <si>
     <t>Confirmed</t>
   </si>
@@ -698,6 +698,15 @@
   </si>
   <si>
     <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C227"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3558,6 +3567,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>34</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>26</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
